--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed3/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.666</v>
+        <v>-11.5732</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.011999999999999</v>
+        <v>4.870099999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.02619999999999</v>
+        <v>-21.75489999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.28949999999999</v>
+        <v>16.12309999999999</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5658</v>
+        <v>-21.55350000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.6711</v>
+        <v>16.84560000000001</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.724499999999997</v>
+        <v>4.506299999999995</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.07210000000001</v>
+        <v>-22.08260000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.42769999999999</v>
+        <v>-11.6029</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.4106</v>
+        <v>-11.5732</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.417599999999997</v>
+        <v>9.389199999999995</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.65089999999999</v>
+        <v>-12.8437</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.020100000000002</v>
+        <v>5.084400000000005</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.280900000000001</v>
+        <v>4.495200000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.558999999999998</v>
+        <v>4.816899999999999</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.54249999999999</v>
+        <v>16.58449999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.31520000000001</v>
+        <v>16.33910000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.62949999999999</v>
+        <v>-19.53359999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.291999999999994</v>
+        <v>9.258699999999994</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.15150000000001</v>
+        <v>-11.70570000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.19120000000001</v>
+        <v>17.13490000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.43489999999999</v>
+        <v>-13.86619999999998</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.3378</v>
+        <v>-12.0235</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1273,7 +1273,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>15.6642</v>
+        <v>15.54420000000001</v>
       </c>
     </row>
     <row r="50">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.43680000000001</v>
+        <v>-22.42900000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.66709999999999</v>
+        <v>16.6721</v>
       </c>
     </row>
     <row r="57">
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-11.92369999999999</v>
+        <v>-11.84929999999999</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.49360000000001</v>
+        <v>-21.49460000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>4.6427</v>
+        <v>4.6753</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.36010000000003</v>
+        <v>17.38130000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.1892</v>
+        <v>-12.48190000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.640499999999998</v>
+        <v>5.639400000000002</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.96339999999998</v>
+        <v>-20.32459999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.05899999999998</v>
+        <v>-20.27409999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.73179999999999</v>
+        <v>16.81109999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.589899999999997</v>
+        <v>5.767299999999995</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>5.057399999999998</v>
+        <v>5.043799999999997</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.59310000000001</v>
+        <v>18.37700000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.3065</v>
+        <v>-12.2697</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.127200000000006</v>
+        <v>5.326600000000006</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.575600000000001</v>
+        <v>6.744800000000001</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,10 +2148,10 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>9.319999999999991</v>
+        <v>9.226199999999993</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.08870000000001</v>
+        <v>-12.91610000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.475700000000003</v>
+        <v>8.624500000000008</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
